--- a/maxim/3new/method.xlsx
+++ b/maxim/3new/method.xlsx
@@ -11,6 +11,10 @@
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -102,12 +106,57 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$100</c:f>
+              <c:f>Лист1!$B$1:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -266,165 +315,285 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2.2204460492503131E-16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1102230246251565E-16</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.5511151231257827E-17</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.7755575615628914E-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3877787807814457E-17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.9388939039072284E-18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.4694469519536142E-18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7347234759768071E-18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.6736173798840355E-19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3368086899420177E-19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1684043449710089E-19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0842021724855044E-19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.4210108624275222E-20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.7105054312137611E-20</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3552527156068805E-20</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7762635780344027E-21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3881317890172014E-21</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6940658945086007E-21</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.4703294725430034E-22</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.2351647362715017E-22</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1175823681357508E-22</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0587911840678754E-22</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.2939559203393771E-23</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.6469779601696886E-23</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3234889800848443E-23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.6174449004242214E-24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.3087224502121107E-24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6543612251060553E-24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.2718061255302767E-25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.1359030627651384E-25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0679515313825692E-25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0339757656912846E-25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.169878828456423E-26</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5849394142282115E-26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2924697071141057E-26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.4623485355705287E-27</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.2311742677852644E-27</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6155871338926322E-27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$50</c:f>
+              <c:f>Лист1!$A$1:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>515</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1341</c:v>
+                  <c:v>1921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1897</c:v>
+                  <c:v>3101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2738</c:v>
+                  <c:v>3783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3164</c:v>
+                  <c:v>5434</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3687</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4439</c:v>
+                  <c:v>7237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5030</c:v>
+                  <c:v>7428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6170</c:v>
+                  <c:v>8067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6280</c:v>
+                  <c:v>9969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6938</c:v>
+                  <c:v>10360</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7403</c:v>
+                  <c:v>11457</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8004</c:v>
+                  <c:v>13462</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9050</c:v>
+                  <c:v>15229</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9208</c:v>
+                  <c:v>13788</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9991</c:v>
+                  <c:v>14243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10410</c:v>
+                  <c:v>15067</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11332</c:v>
+                  <c:v>15091</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11698</c:v>
+                  <c:v>16243</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12686</c:v>
+                  <c:v>17112</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13236</c:v>
+                  <c:v>18771</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13464</c:v>
+                  <c:v>19250</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14455</c:v>
+                  <c:v>19934</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14446</c:v>
+                  <c:v>20477</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15796</c:v>
+                  <c:v>21836</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16026</c:v>
+                  <c:v>23613</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16902</c:v>
+                  <c:v>23049</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17424</c:v>
+                  <c:v>23945</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18107</c:v>
+                  <c:v>24877</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18801</c:v>
+                  <c:v>26377</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19071</c:v>
+                  <c:v>26399</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19940</c:v>
+                  <c:v>27847</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20613</c:v>
+                  <c:v>28271</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21313</c:v>
+                  <c:v>28657</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21536</c:v>
+                  <c:v>29762</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22647</c:v>
+                  <c:v>30402</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22944</c:v>
+                  <c:v>31616</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23484</c:v>
+                  <c:v>31994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24069</c:v>
+                  <c:v>33521</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24518</c:v>
+                  <c:v>34126</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25756</c:v>
+                  <c:v>35114</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26086</c:v>
+                  <c:v>35344</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26964</c:v>
+                  <c:v>35940</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27376</c:v>
+                  <c:v>37066</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28354</c:v>
+                  <c:v>37612</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28352</c:v>
+                  <c:v>39000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>28757</c:v>
+                  <c:v>39785</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29927</c:v>
+                  <c:v>40493</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30638</c:v>
+                  <c:v>41075</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>31259</c:v>
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43453</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,6 +618,330 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8828125E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.44140625E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.220703125E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.103515625E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0517578125E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.52587890625E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.62939453125E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.814697265625E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9073486328125E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5367431640625E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.76837158203125E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.384185791015625E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1920928955078125E-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9604644775390625E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9802322387695313E-8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4901161193847656E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4505805969238281E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7252902984619141E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.862645149230957E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.3132257461547852E-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6566128730773926E-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3283064365386963E-10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1641532182693481E-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8207660913467407E-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9103830456733704E-11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4551915228366852E-11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2759576141834259E-12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.637978807091713E-12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8189894035458565E-12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0949470177292824E-13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5474735088646412E-13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2737367544323206E-13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1368683772161603E-13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.6843418860808015E-14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8421709430404007E-14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4210854715202004E-14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.1054273576010019E-15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5527136788005009E-15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7763568394002505E-15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.8817841970012523E-16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.4408920985006262E-16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2204460492503131E-16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1102230246251565E-16</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.5511151231257827E-17</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.7755575615628914E-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3877787807814457E-17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.9388939039072284E-18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.4694469519536142E-18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7347234759768071E-18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.6736173798840355E-19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3368086899420177E-19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1684043449710089E-19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0842021724855044E-19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.4210108624275222E-20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.7105054312137611E-20</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3552527156068805E-20</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7762635780344027E-21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3881317890172014E-21</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6940658945086007E-21</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.4703294725430034E-22</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.2351647362715017E-22</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1175823681357508E-22</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0587911840678754E-22</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.2939559203393771E-23</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.6469779601696886E-23</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3234889800848443E-23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.6174449004242214E-24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.3087224502121107E-24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6543612251060553E-24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.2718061255302767E-25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.1359030627651384E-25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0679515313825692E-25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0339757656912846E-25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.169878828456423E-26</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5849394142282115E-26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2924697071141057E-26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.4623485355705287E-27</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.2311742677852644E-27</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6155871338926322E-27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$C$1:$C$53</c:f>
@@ -456,163 +949,351 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>851</c:v>
+                  <c:v>2188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2490</c:v>
+                  <c:v>3122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3269</c:v>
+                  <c:v>4572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4926</c:v>
+                  <c:v>6609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5913</c:v>
+                  <c:v>7244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6813</c:v>
+                  <c:v>8177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8157</c:v>
+                  <c:v>10981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9265</c:v>
+                  <c:v>10952</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10654</c:v>
+                  <c:v>11742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11572</c:v>
+                  <c:v>13483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13081</c:v>
+                  <c:v>14371</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13967</c:v>
+                  <c:v>16348</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15039</c:v>
+                  <c:v>17143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16353</c:v>
+                  <c:v>18770</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17347</c:v>
+                  <c:v>20519</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18926</c:v>
+                  <c:v>21691</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19764</c:v>
+                  <c:v>22445</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21514</c:v>
+                  <c:v>23214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21843</c:v>
+                  <c:v>25282</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23922</c:v>
+                  <c:v>25808</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24500</c:v>
+                  <c:v>27896</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25279</c:v>
+                  <c:v>28650</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26952</c:v>
+                  <c:v>30595</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27754</c:v>
+                  <c:v>31336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29430</c:v>
+                  <c:v>33299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30303</c:v>
+                  <c:v>34010</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31684</c:v>
+                  <c:v>34803</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32786</c:v>
+                  <c:v>36484</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34372</c:v>
+                  <c:v>37187</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35050</c:v>
+                  <c:v>39061</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36183</c:v>
+                  <c:v>40060</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37478</c:v>
+                  <c:v>41596</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38133</c:v>
+                  <c:v>43037</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39807</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40815</c:v>
+                  <c:v>45056</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42722</c:v>
+                  <c:v>46607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43007</c:v>
+                  <c:v>47908</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43697</c:v>
+                  <c:v>48672</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45623</c:v>
+                  <c:v>51260</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46534</c:v>
+                  <c:v>51717</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47465</c:v>
+                  <c:v>53508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48959</c:v>
+                  <c:v>54415</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50264</c:v>
+                  <c:v>55350</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51003</c:v>
+                  <c:v>57109</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52687</c:v>
+                  <c:v>57830</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53679</c:v>
+                  <c:v>59282</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54541</c:v>
+                  <c:v>60439</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55860</c:v>
+                  <c:v>61912</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56828</c:v>
+                  <c:v>64709</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58789</c:v>
+                  <c:v>65300</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59402</c:v>
+                  <c:v>66010</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>61963</c:v>
+                  <c:v>66694</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62227</c:v>
+                  <c:v>67552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GoldRec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$1:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>3042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26118</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29077</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31910</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35891</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38617</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39634</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41321</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47595</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47557</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54645</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54859</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58794</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60526</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62235</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63081</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66866</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70432</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70820</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74669</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>75472</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78882</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79897</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82336</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>83391</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>86649</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>86677</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88922</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>91405</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91791</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>93379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,11 +1309,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="179095176"/>
-        <c:axId val="179095560"/>
+        <c:axId val="273060088"/>
+        <c:axId val="273060472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179095176"/>
+        <c:axId val="273060088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +1356,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179095560"/>
+        <c:crossAx val="273060472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179095560"/>
+        <c:axId val="273060472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +1415,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179095176"/>
+        <c:crossAx val="273060088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1343,16 +2024,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295835</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1661,776 +2342,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>515</v>
+        <v>1333</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2188</v>
+      </c>
+      <c r="D1">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1341</v>
+        <v>1921</v>
       </c>
       <c r="B2">
         <f>B1/2</f>
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3122</v>
+      </c>
+      <c r="D2">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1897</v>
+        <v>3101</v>
       </c>
       <c r="B3">
         <f>B2/2</f>
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4572</v>
+      </c>
+      <c r="D3">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2738</v>
+        <v>3783</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B53" si="0">B3/2</f>
+        <f t="shared" ref="B4:B67" si="0">B3/2</f>
         <v>0.125</v>
       </c>
       <c r="C4">
-        <v>4926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6609</v>
+      </c>
+      <c r="D4">
+        <v>7591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3164</v>
+        <v>5434</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="C5">
-        <v>5913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7244</v>
+      </c>
+      <c r="D5">
+        <v>10063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>3687</v>
+        <v>5836</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="C6">
-        <v>6813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8177</v>
+      </c>
+      <c r="D6">
+        <v>11303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>4439</v>
+        <v>7237</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
       <c r="C7">
-        <v>8157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10981</v>
+      </c>
+      <c r="D7">
+        <v>13771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>5030</v>
+        <v>7428</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>7.8125E-3</v>
       </c>
       <c r="C8">
-        <v>9265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10952</v>
+      </c>
+      <c r="D8">
+        <v>14649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>6170</v>
+        <v>8067</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>3.90625E-3</v>
       </c>
       <c r="C9">
-        <v>10654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11742</v>
+      </c>
+      <c r="D9">
+        <v>15995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>6280</v>
+        <v>9969</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>1.953125E-3</v>
       </c>
       <c r="C10">
-        <v>11572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13483</v>
+      </c>
+      <c r="D10">
+        <v>18507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>6938</v>
+        <v>10360</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>9.765625E-4</v>
       </c>
       <c r="C11">
-        <v>13081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14371</v>
+      </c>
+      <c r="D11">
+        <v>19494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>7403</v>
+        <v>11457</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="C12">
-        <v>13967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16348</v>
+      </c>
+      <c r="D12">
+        <v>22184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>8004</v>
+        <v>13462</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="C13">
-        <v>15039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17143</v>
+      </c>
+      <c r="D13">
+        <v>23017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>9050</v>
+        <v>15229</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="C14">
-        <v>16353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18770</v>
+      </c>
+      <c r="D14">
+        <v>26118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>9208</v>
+        <v>13788</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>6.103515625E-5</v>
       </c>
       <c r="C15">
-        <v>17347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20519</v>
+      </c>
+      <c r="D15">
+        <v>28503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>9991</v>
+        <v>14243</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>3.0517578125E-5</v>
       </c>
       <c r="C16">
-        <v>18926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21691</v>
+      </c>
+      <c r="D16">
+        <v>29077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>10410</v>
+        <v>15067</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
         <v>1.52587890625E-5</v>
       </c>
       <c r="C17">
-        <v>19764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22445</v>
+      </c>
+      <c r="D17">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>11332</v>
+        <v>15091</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>7.62939453125E-6</v>
       </c>
       <c r="C18">
-        <v>21514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23214</v>
+      </c>
+      <c r="D18">
+        <v>31910</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>11698</v>
+        <v>16243</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>3.814697265625E-6</v>
       </c>
       <c r="C19">
-        <v>21843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25282</v>
+      </c>
+      <c r="D19">
+        <v>34316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>12686</v>
+        <v>17112</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
         <v>1.9073486328125E-6</v>
       </c>
       <c r="C20">
-        <v>23922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25808</v>
+      </c>
+      <c r="D20">
+        <v>35891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>13236</v>
+        <v>18771</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
         <v>9.5367431640625E-7</v>
       </c>
       <c r="C21">
-        <v>24500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27896</v>
+      </c>
+      <c r="D21">
+        <v>38617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>13464</v>
+        <v>19250</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
         <v>4.76837158203125E-7</v>
       </c>
       <c r="C22">
-        <v>25279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28650</v>
+      </c>
+      <c r="D22">
+        <v>39634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>14455</v>
+        <v>19934</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
         <v>2.384185791015625E-7</v>
       </c>
       <c r="C23">
-        <v>26952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30595</v>
+      </c>
+      <c r="D23">
+        <v>41321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>14446</v>
+        <v>20477</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
         <v>1.1920928955078125E-7</v>
       </c>
       <c r="C24">
-        <v>27754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31336</v>
+      </c>
+      <c r="D24">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>15796</v>
+        <v>21836</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
         <v>5.9604644775390625E-8</v>
       </c>
       <c r="C25">
-        <v>29430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33299</v>
+      </c>
+      <c r="D25">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>16026</v>
+        <v>23613</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
         <v>2.9802322387695313E-8</v>
       </c>
       <c r="C26">
-        <v>30303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34010</v>
+      </c>
+      <c r="D26">
+        <v>47595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>16902</v>
+        <v>23049</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
         <v>1.4901161193847656E-8</v>
       </c>
       <c r="C27">
-        <v>31684</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34803</v>
+      </c>
+      <c r="D27">
+        <v>47557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>17424</v>
+        <v>23945</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
         <v>7.4505805969238281E-9</v>
       </c>
       <c r="C28">
-        <v>32786</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36484</v>
+      </c>
+      <c r="D28">
+        <v>50249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>18107</v>
+        <v>24877</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
         <v>3.7252902984619141E-9</v>
       </c>
       <c r="C29">
-        <v>34372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37187</v>
+      </c>
+      <c r="D29">
+        <v>51012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>18801</v>
+        <v>26377</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
         <v>1.862645149230957E-9</v>
       </c>
       <c r="C30">
-        <v>35050</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39061</v>
+      </c>
+      <c r="D30">
+        <v>54645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>19071</v>
+        <v>26399</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
         <v>9.3132257461547852E-10</v>
       </c>
       <c r="C31">
-        <v>36183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40060</v>
+      </c>
+      <c r="D31">
+        <v>54859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>19940</v>
+        <v>27847</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
         <v>4.6566128730773926E-10</v>
       </c>
       <c r="C32">
-        <v>37478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41596</v>
+      </c>
+      <c r="D32">
+        <v>57159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>20613</v>
+        <v>28271</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
         <v>2.3283064365386963E-10</v>
       </c>
       <c r="C33">
-        <v>38133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43037</v>
+      </c>
+      <c r="D33">
+        <v>58794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>21313</v>
+        <v>28657</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
         <v>1.1641532182693481E-10</v>
       </c>
       <c r="C34">
-        <v>39807</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43586</v>
+      </c>
+      <c r="D34">
+        <v>60526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>21536</v>
+        <v>29762</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
         <v>5.8207660913467407E-11</v>
       </c>
       <c r="C35">
-        <v>40815</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45056</v>
+      </c>
+      <c r="D35">
+        <v>62235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>22647</v>
+        <v>30402</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
         <v>2.9103830456733704E-11</v>
       </c>
       <c r="C36">
-        <v>42722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46607</v>
+      </c>
+      <c r="D36">
+        <v>63081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>22944</v>
+        <v>31616</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
         <v>1.4551915228366852E-11</v>
       </c>
       <c r="C37">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47908</v>
+      </c>
+      <c r="D37">
+        <v>66659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>23484</v>
+        <v>31994</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
         <v>7.2759576141834259E-12</v>
       </c>
       <c r="C38">
-        <v>43697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48672</v>
+      </c>
+      <c r="D38">
+        <v>66866</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>24069</v>
+        <v>33521</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
         <v>3.637978807091713E-12</v>
       </c>
       <c r="C39">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51260</v>
+      </c>
+      <c r="D39">
+        <v>70432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>24518</v>
+        <v>34126</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
         <v>1.8189894035458565E-12</v>
       </c>
       <c r="C40">
-        <v>46534</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51717</v>
+      </c>
+      <c r="D40">
+        <v>70820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>25756</v>
+        <v>35114</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>9.0949470177292824E-13</v>
       </c>
       <c r="C41">
-        <v>47465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53508</v>
+      </c>
+      <c r="D41">
+        <v>74536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>26086</v>
+        <v>35344</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
         <v>4.5474735088646412E-13</v>
       </c>
       <c r="C42">
-        <v>48959</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54415</v>
+      </c>
+      <c r="D42">
+        <v>74669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>26964</v>
+        <v>35940</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
         <v>2.2737367544323206E-13</v>
       </c>
       <c r="C43">
-        <v>50264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55350</v>
+      </c>
+      <c r="D43">
+        <v>75472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>27376</v>
+        <v>37066</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
         <v>1.1368683772161603E-13</v>
       </c>
       <c r="C44">
-        <v>51003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57109</v>
+      </c>
+      <c r="D44">
+        <v>78882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>28354</v>
+        <v>37612</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
         <v>5.6843418860808015E-14</v>
       </c>
       <c r="C45">
-        <v>52687</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57830</v>
+      </c>
+      <c r="D45">
+        <v>79897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>28352</v>
+        <v>39000</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
         <v>2.8421709430404007E-14</v>
       </c>
       <c r="C46">
-        <v>53679</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59282</v>
+      </c>
+      <c r="D46">
+        <v>82336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>28757</v>
+        <v>39785</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
         <v>1.4210854715202004E-14</v>
       </c>
       <c r="C47">
-        <v>54541</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60439</v>
+      </c>
+      <c r="D47">
+        <v>83391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>29927</v>
+        <v>40493</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
         <v>7.1054273576010019E-15</v>
       </c>
       <c r="C48">
-        <v>55860</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61912</v>
+      </c>
+      <c r="D48">
+        <v>86649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>30638</v>
+        <v>41075</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
         <v>3.5527136788005009E-15</v>
       </c>
       <c r="C49">
-        <v>56828</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64709</v>
+      </c>
+      <c r="D49">
+        <v>86677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>31259</v>
+        <v>42521</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
         <v>1.7763568394002505E-15</v>
       </c>
       <c r="C50">
-        <v>58789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65300</v>
+      </c>
+      <c r="D50">
+        <v>88922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>31869</v>
+        <v>43351</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
         <v>8.8817841970012523E-16</v>
       </c>
       <c r="C51">
-        <v>59402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66010</v>
+      </c>
+      <c r="D51">
+        <v>91405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>31889</v>
+        <v>43453</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="C52">
-        <v>61963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66694</v>
+      </c>
+      <c r="D52">
+        <v>91791</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>32532</v>
+        <v>45044</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
         <v>2.2204460492503131E-16</v>
       </c>
       <c r="C53">
-        <v>62227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67552</v>
+      </c>
+      <c r="D53">
+        <v>93379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>5.5511151231257827E-17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2.7755575615628914E-17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.3877787807814457E-17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>6.9388939039072284E-18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>3.4694469519536142E-18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1.7347234759768071E-18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>8.6736173798840355E-19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>4.3368086899420177E-19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>2.1684043449710089E-19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1.0842021724855044E-19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>5.4210108624275222E-20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>2.7105054312137611E-20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>1.3552527156068805E-20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <f t="shared" ref="B68:B90" si="1">B67/2</f>
+        <v>6.7762635780344027E-21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>3.3881317890172014E-21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>1.6940658945086007E-21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>8.4703294725430034E-22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>4.2351647362715017E-22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>2.1175823681357508E-22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>1.0587911840678754E-22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>5.2939559203393771E-23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>2.6469779601696886E-23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>1.3234889800848443E-23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>6.6174449004242214E-24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>3.3087224502121107E-24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>1.6543612251060553E-24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>8.2718061255302767E-25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>4.1359030627651384E-25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>2.0679515313825692E-25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>1.0339757656912846E-25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>5.169878828456423E-26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>2.5849394142282115E-26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>1.2924697071141057E-26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>6.4623485355705287E-27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>3.2311742677852644E-27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>1.6155871338926322E-27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
